--- a/biology/Mycologie/Neoboletus_flavosanguineus/Neoboletus_flavosanguineus.xlsx
+++ b/biology/Mycologie/Neoboletus_flavosanguineus/Neoboletus_flavosanguineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet jaune sang
 Neoboletus flavosanguineus, le Bolet jaune sang, auparavant Cyanoboletus flavosanguineus ou encore Boletus flavosanguineus, est une espèce de champignons basidiomycètes du genre Neoboletus dans la famille des Boletaceae. Il est caractérisé par ses teintes jaunes, son pied orné d'un réseau et sa chair fortement bleuissante.
@@ -512,13 +524,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Neoboletus flavosanguineus (Lavorato &amp; Simonini) Biketova, Wasser, Simonini &amp; Gelardi 2021[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus flavosanguineus Lavorato &amp; Simonini 1997[1].
-Synonymes
-Neoboletus flavosanguineus a pour synonyme :
-Cyanoboletus flavosanguineus (Lavorato &amp; Simonini) Pierotti[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Neoboletus flavosanguineus (Lavorato &amp; Simonini) Biketova, Wasser, Simonini &amp; Gelardi 2021.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus flavosanguineus Lavorato &amp; Simonini 1997.
+</t>
         </is>
       </c>
     </row>
@@ -543,18 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description du sporophore</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Neoboletus flavosanguineus sont les suivantes :
-Son chapeau mesure jusqu'à 7 cm, il est convexe à plat-convexe ou presque plat, sec, lisse, de couleur jaune citron à jaune vif, tacheté de rougeâtre, vineux ou brunâtre. 
-Ses tubes et pores sont jaune citron à jaune avec des teintes olivacées, bleuissant en cas de blessure.
-Son stipe est presque cylindrique, typiquement en pointe, jaune citron à jaune, teinté de rougeâtre ou vineux à la base, orné d'un réseau[2].
-La chair est jaune citron, bleuissant fortement à la pression et à la coupe.
-L'odeur est non distinctive. La saveur est légèrement acide[3].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neoboletus flavosanguineus a pour synonyme :
+Cyanoboletus flavosanguineus (Lavorato &amp; Simonini) Pierotti</t>
         </is>
       </c>
     </row>
@@ -579,12 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce mycorhizienne, méditerranéenne, poussant sous conifères et sous feuillus, nottament sous chênes (Quercus)[4].
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Neoboletus flavosanguineus sont les suivantes :
+Son chapeau mesure jusqu'à 7 cm, il est convexe à plat-convexe ou presque plat, sec, lisse, de couleur jaune citron à jaune vif, tacheté de rougeâtre, vineux ou brunâtre. 
+Ses tubes et pores sont jaune citron à jaune avec des teintes olivacées, bleuissant en cas de blessure.
+Son stipe est presque cylindrique, typiquement en pointe, jaune citron à jaune, teinté de rougeâtre ou vineux à la base, orné d'un réseau.
+La chair est jaune citron, bleuissant fortement à la pression et à la coupe.
+L'odeur est non distinctive. La saveur est légèrement acide.
 </t>
         </is>
       </c>
@@ -610,12 +630,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bolet jaune sang est une espèce rare pour laquelle il n'existe pas de consommation traditionnelle. En l'absence de données suffisantes pour évaluer sa sécurité alimentaire, il vaut mieux le considérer comme non comestible[4].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce mycorhizienne, méditerranéenne, poussant sous conifères et sous feuillus, nottament sous chênes (Quercus).
 </t>
         </is>
       </c>
@@ -641,10 +663,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet jaune sang est une espèce rare pour laquelle il n'existe pas de consommation traditionnelle. En l'absence de données suffisantes pour évaluer sa sécurité alimentaire, il vaut mieux le considérer comme non comestible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Neoboletus_flavosanguineus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neoboletus_flavosanguineus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le Bolet pulvérulent (Cyanoboletus pulverulentus), sans réseau sur le stipe.
 Le Bolet polychrome (Cupreoboletus poikilochromus), au réseau rouge, formant des cristaux à la dessication.</t>
